--- a/2-1试验数据/1Q890矩形缺口试验20180308/Q890矩形缺口试验尺寸记录表.xlsx
+++ b/2-1试验数据/1Q890矩形缺口试验20180308/Q890矩形缺口试验尺寸记录表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1毕业课题\2-1试验数据\1Q890矩形缺口试验20180308\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1毕业课题\#Graduate-thesis\2-1试验数据\1Q890矩形缺口试验20180308\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,7 +293,7 @@
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +466,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1025,7 +1093,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1318,16 +1386,16 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="8.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1362,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1397,7 +1465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1502,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1471,7 +1539,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1576,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1545,7 +1613,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1650,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="7" customFormat="1">
+    <row r="8" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1616,7 +1684,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="7" customFormat="1">
+    <row r="11" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1725,7 +1793,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1762,7 +1830,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1867,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1832,11 +1900,11 @@
       <c r="J14" s="1">
         <v>0.5</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="10">
         <v>128.6</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1955,11 +2023,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="8.5" style="2" customWidth="1"/>
     <col min="9" max="22" width="9" style="1"/>
@@ -1969,7 +2037,7 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="54">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +2109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2109,7 +2177,7 @@
       </c>
       <c r="W2" s="21"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -2177,7 +2245,7 @@
       </c>
       <c r="W3" s="21"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -2245,7 +2313,7 @@
       </c>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2403,7 @@
         <v>1.7257</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -2405,7 +2473,7 @@
       <c r="AA6" s="17"/>
       <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -2475,7 +2543,7 @@
       <c r="AA7" s="17"/>
       <c r="AB7" s="19"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2545,7 +2613,7 @@
       <c r="AA8" s="17"/>
       <c r="AB8" s="19"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -2635,7 +2703,7 @@
         <v>1.6466000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2706,7 +2774,7 @@
       <c r="AA10" s="17"/>
       <c r="AB10" s="19"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2777,7 +2845,7 @@
       <c r="AA11" s="17"/>
       <c r="AB11" s="19"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2848,7 +2916,7 @@
       <c r="AA12" s="17"/>
       <c r="AB12" s="19"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2938,7 +3006,7 @@
         <v>1.6069</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q14" s="2" t="s">
         <v>35</v>
       </c>
@@ -2963,7 +3031,7 @@
       <c r="AA14" s="17"/>
       <c r="AB14" s="19"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q15" s="2" t="s">
         <v>36</v>
       </c>
@@ -2988,7 +3056,7 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="19"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Q16" s="2" t="s">
         <v>37</v>
       </c>
@@ -3013,7 +3081,7 @@
       <c r="AA16" s="17"/>
       <c r="AB16" s="19"/>
     </row>
-    <row r="17" spans="17:28">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.2">
       <c r="Q17" s="14" t="s">
         <v>52</v>
       </c>
@@ -3057,7 +3125,7 @@
         <v>1.4944999999999999</v>
       </c>
     </row>
-    <row r="19" spans="17:28">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.2">
       <c r="AA19" s="17">
         <f>AVERAGE(AA5:AA17)</f>
         <v>1.6549496084027919</v>
@@ -3067,7 +3135,7 @@
         <v>1.6184250000000002</v>
       </c>
     </row>
-    <row r="20" spans="17:28">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.2">
       <c r="AA20" s="23">
         <f>DEVSQ(AA5:AA17)</f>
         <v>1.6079612822369294E-2</v>
@@ -3080,6 +3148,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>